--- a/1_semester/Moduls/Приложение/User.xlsx
+++ b/1_semester/Moduls/Приложение/User.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Moduls\Приложение\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF955B7-5307-494C-B761-ACC6A0603B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="2145" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="2145" windowWidth="21600" windowHeight="11295"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="User" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
@@ -132,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,20 +201,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -282,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -334,7 +332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -528,34 +526,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -568,11 +559,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -585,11 +576,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -602,11 +593,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -619,11 +610,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -636,11 +627,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -653,11 +644,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -670,11 +661,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -687,11 +678,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -704,11 +695,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -721,11 +712,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -738,30 +729,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
